--- a/sp500_dist_graphs/Summary Table.xlsx
+++ b/sp500_dist_graphs/Summary Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwest\github\safe_withdrawl_rate\sp500_dist_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D13242-5C51-413F-8477-5B72E8DC81EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FB48F-B504-41FC-9540-0B7F78F09C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6540" windowWidth="29040" windowHeight="15720" xr2:uid="{0525E5C3-D105-4ACC-940C-7A21E8BFF324}"/>
   </bookViews>
@@ -198,6 +198,1302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distributions by Different Training Data Ranges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1777185939992797E-2"/>
+          <c:y val="0.11127682295750725"/>
+          <c:w val="0.81890883124903491"/>
+          <c:h val="0.81859147724940584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1927</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$2:$I$2,Sheet1!$K$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$3:$J$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.6895719999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5773519999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7647489999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9833859999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4608920000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6594580000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18F6-429A-81A8-6E2983516EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1946</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$2:$I$2,Sheet1!$K$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$4:$J$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.4779779999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0931500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7998440000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2956819999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0780360000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4717879999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18F6-429A-81A8-6E2983516EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$2:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$2:$I$2,Sheet1!$K$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95th Percentile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$5:$J$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.5951819999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.6426610000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5972500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.384827E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5703480000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6037679999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18F6-429A-81A8-6E2983516EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="845346048"/>
+        <c:axId val="955218880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="845346048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955218880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="955218880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845346048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89375791261386439"/>
+          <c:y val="0.45420188274070517"/>
+          <c:w val="8.1732283464566929E-2"/>
+          <c:h val="0.15164872083292902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial Nova" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C35F3A2-0DF1-9230-6287-3AE03C12CD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90931</cdr:x>
+      <cdr:y>0.09153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9473</cdr:x>
+      <cdr:y>0.28814</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEC9124-8B6F-E1A2-EE6C-A13B828F1C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7067550" y="385764"/>
+          <a:ext cx="295275" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8701</cdr:x>
+      <cdr:y>0.34237</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.45085</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0D5C13-64CD-D98F-28D3-980D3A51F477}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6762750" y="1443039"/>
+          <a:ext cx="1009650" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Training Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Start Year</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +1795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313C17F-1E1D-421F-A620-24C261BC25EB}">
   <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -679,5 +1977,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>